--- a/termNIT/2023/supplementary/R_OUT - Nitinat sex correction 2023.xlsx
+++ b/termNIT/2023/supplementary/R_OUT - Nitinat sex correction 2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,95 +360,100 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>(R) RESOLVED TOTAL AGE</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>TermRun_AGES_year</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>n_sample</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>propn_age_sample</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>n_age_jackCORR</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>n_sample_jackCORR</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>propn_age_sample_jackCORR</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>escapement_estimate</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>true_sex_ratio</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>n_sex_CORR</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>n_sexAge_CORR</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>propn_sexAge_CORR</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>TermRun_AGEStemp</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>TermRun_AGESspat</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>TermRun_AGESsex</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>fecundity</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>Maturity.Class</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>(R) RESOLVED TOTAL AGE</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>TermRun_AGES_year</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>n_sample</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>propn_age_sample</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>n_age_jackCORR</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>n_sample_jackCORR</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>propn_age_sample_jackCORR</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>escapement_estimate</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>true_sex_ratio</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>n_sex_CORR</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>n_sexAge_CORR</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>propn_sexAge_CORR</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>TermRun_AGEStemp</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>TermRun_AGESspat</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>TermRun_AGESsex</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>fecundity</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>total_fecundity</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>total_egg_deposition</t>
         </is>
@@ -469,7 +474,7 @@
         </is>
       </c>
       <c r="D2">
-        <v>221</v>
+        <v>158</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -477,21 +482,24 @@
       <c r="F2">
         <v>0</v>
       </c>
+      <c r="G2">
+        <v>158</v>
+      </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>14250</t>
+          <t>2664</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.43613707165109</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="K2">
-        <v>6214.953271028033</v>
+        <v>612.72</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -517,11 +525,16 @@
       <c r="Q2">
         <v>0</v>
       </c>
-      <c r="R2">
-        <v>0</v>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
       </c>
       <c r="S2">
-        <v>21949190.17211484</v>
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>15126234.28571429</v>
       </c>
     </row>
     <row r="3">
@@ -539,38 +552,38 @@
         </is>
       </c>
       <c r="D3">
-        <v>221</v>
+        <v>158</v>
       </c>
       <c r="E3">
-        <v>0.02262443438914027</v>
+        <v>0.06329113924050633</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>221</v>
+        <v>158</v>
       </c>
       <c r="H3">
-        <v>0.02262443438914027</v>
+        <v>0.06329113924050633</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>14250</t>
+          <t>2664</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.43613707165109</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="K3">
-        <v>6214.953271028033</v>
+        <v>612.72</v>
       </c>
       <c r="L3">
-        <v>140.6098025119464</v>
+        <v>38.77974683544304</v>
       </c>
       <c r="M3">
-        <v>0.009867354562241856</v>
+        <v>0.01455696202531646</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -590,11 +603,16 @@
       <c r="Q3">
         <v>3000</v>
       </c>
-      <c r="R3">
-        <v>421829.4075358393</v>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
       </c>
       <c r="S3">
-        <v>21949190.17211484</v>
+        <v>116339.2405063291</v>
+      </c>
+      <c r="T3">
+        <v>15126234.28571429</v>
       </c>
     </row>
     <row r="4">
@@ -612,38 +630,38 @@
         </is>
       </c>
       <c r="D4">
-        <v>221</v>
+        <v>158</v>
       </c>
       <c r="E4">
-        <v>0.8914027149321267</v>
+        <v>0.8734177215189873</v>
       </c>
       <c r="F4">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="G4">
-        <v>221</v>
+        <v>158</v>
       </c>
       <c r="H4">
-        <v>0.8914027149321267</v>
+        <v>0.8734177215189873</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>14250</t>
+          <t>2664</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.43613707165109</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="K4">
-        <v>6214.953271028033</v>
+        <v>612.72</v>
       </c>
       <c r="L4">
-        <v>5540.02621897069</v>
+        <v>535.1605063291139</v>
       </c>
       <c r="M4">
-        <v>0.3887737697523291</v>
+        <v>0.2008860759493671</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +681,16 @@
       <c r="Q4">
         <v>3500</v>
       </c>
-      <c r="R4">
-        <v>19390091.76639742</v>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
       </c>
       <c r="S4">
-        <v>21949190.17211484</v>
+        <v>1873061.772151899</v>
+      </c>
+      <c r="T4">
+        <v>15126234.28571429</v>
       </c>
     </row>
     <row r="5">
@@ -685,38 +708,38 @@
         </is>
       </c>
       <c r="D5">
-        <v>221</v>
+        <v>158</v>
       </c>
       <c r="E5">
-        <v>0.08144796380090498</v>
+        <v>0.06329113924050633</v>
       </c>
       <c r="F5">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>221</v>
+        <v>158</v>
       </c>
       <c r="H5">
-        <v>0.08144796380090498</v>
+        <v>0.06329113924050633</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>14250</t>
+          <t>2664</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.43613707165109</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="K5">
-        <v>6214.953271028033</v>
+        <v>612.72</v>
       </c>
       <c r="L5">
-        <v>506.1952890430072</v>
+        <v>38.77974683544304</v>
       </c>
       <c r="M5">
-        <v>0.03552247642407069</v>
+        <v>0.01455696202531646</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -736,11 +759,16 @@
       <c r="Q5">
         <v>4000</v>
       </c>
-      <c r="R5">
-        <v>2024781.156172029</v>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
       </c>
       <c r="S5">
-        <v>21949190.17211484</v>
+        <v>155118.9873417722</v>
+      </c>
+      <c r="T5">
+        <v>15126234.28571429</v>
       </c>
     </row>
     <row r="6">
@@ -758,38 +786,38 @@
         </is>
       </c>
       <c r="D6">
-        <v>221</v>
+        <v>158</v>
       </c>
       <c r="E6">
-        <v>0.004524886877828055</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>221</v>
+        <v>158</v>
       </c>
       <c r="H6">
-        <v>0.004524886877828055</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>14250</t>
+          <t>2664</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.43613707165109</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="K6">
-        <v>6214.953271028033</v>
+        <v>612.72</v>
       </c>
       <c r="L6">
-        <v>28.12196050238929</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.001973470912448371</v>
+        <v>0</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -809,11 +837,16 @@
       <c r="Q6">
         <v>4000</v>
       </c>
-      <c r="R6">
-        <v>112487.8420095572</v>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
       </c>
       <c r="S6">
-        <v>21949190.17211484</v>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>15126234.28571429</v>
       </c>
     </row>
     <row r="7">
@@ -831,38 +864,38 @@
         </is>
       </c>
       <c r="D7">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0.7818181818181819</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>14250</t>
+          <t>2664</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0.0117932895109482</t>
+          <t>0.017</t>
         </is>
       </c>
       <c r="K7">
-        <v>168.0543755310119</v>
+        <v>45.288</v>
       </c>
       <c r="L7">
-        <v>168.0543755310119</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7818181818181819</v>
+        <v>0</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -878,6 +911,17 @@
         <is>
           <t>Broodstock corrected - Jack</t>
         </is>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="S7">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -895,32 +939,32 @@
         </is>
       </c>
       <c r="D8">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0.1818181818181818</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>14250</t>
+          <t>2664</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0.0117932895109482</t>
+          <t>0.017</t>
         </is>
       </c>
       <c r="K8">
-        <v>168.0543755310119</v>
+        <v>45.288</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -942,6 +986,17 @@
         <is>
           <t>Broodstock corrected - Jack</t>
         </is>
+      </c>
+      <c r="Q8">
+        <v>3000</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="S8">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -959,32 +1014,32 @@
         </is>
       </c>
       <c r="D9">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0.03636363636363636</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>14250</t>
+          <t>2664</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.0117932895109482</t>
+          <t>0.017</t>
         </is>
       </c>
       <c r="K9">
-        <v>168.0543755310119</v>
+        <v>45.288</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1006,6 +1061,17 @@
         <is>
           <t>Broodstock corrected - Jack</t>
         </is>
+      </c>
+      <c r="Q9">
+        <v>3500</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="S9">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1023,7 +1089,7 @@
         </is>
       </c>
       <c r="D10">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1031,21 +1097,24 @@
       <c r="F10">
         <v>0</v>
       </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>14250</t>
+          <t>2664</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.0117932895109482</t>
+          <t>0.017</t>
         </is>
       </c>
       <c r="K10">
-        <v>168.0543755310119</v>
+        <v>45.288</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1067,6 +1136,17 @@
         <is>
           <t>Broodstock corrected - Jack</t>
         </is>
+      </c>
+      <c r="Q10">
+        <v>4000</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="S10">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1084,7 +1164,7 @@
         </is>
       </c>
       <c r="D11">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1092,21 +1172,24 @@
       <c r="F11">
         <v>0</v>
       </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>14250</t>
+          <t>2664</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0.0117932895109482</t>
+          <t>0.017</t>
         </is>
       </c>
       <c r="K11">
-        <v>168.0543755310119</v>
+        <v>45.288</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1128,6 +1211,17 @@
         <is>
           <t>Broodstock corrected - Jack</t>
         </is>
+      </c>
+      <c r="Q11">
+        <v>4000</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="S11">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1145,7 +1239,7 @@
         </is>
       </c>
       <c r="D12">
-        <v>333</v>
+        <v>188</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1153,21 +1247,24 @@
       <c r="F12">
         <v>0</v>
       </c>
+      <c r="G12">
+        <v>189</v>
+      </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>14250</t>
+          <t>2664</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0.552069638837962</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="K12">
-        <v>7866.992353440959</v>
+        <v>1998</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1189,6 +1286,17 @@
         <is>
           <t>Broodstock corrected - Male</t>
         </is>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="S12">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1206,38 +1314,38 @@
         </is>
       </c>
       <c r="D13">
-        <v>333</v>
+        <v>188</v>
       </c>
       <c r="E13">
-        <v>0.1741741741741742</v>
+        <v>0.5159574468085106</v>
       </c>
       <c r="F13">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="G13">
-        <v>345</v>
+        <v>189</v>
       </c>
       <c r="H13">
-        <v>0.1971014492753623</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>14250</t>
+          <t>2664</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0.552069638837962</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="K13">
-        <v>7866.992353440959</v>
+        <v>1998</v>
       </c>
       <c r="L13">
-        <v>1550.595594301406</v>
+        <v>1036</v>
       </c>
       <c r="M13">
-        <v>0.1088137259158882</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1253,6 +1361,17 @@
         <is>
           <t>Broodstock corrected - Male</t>
         </is>
+      </c>
+      <c r="Q13">
+        <v>3000</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="S13">
+        <v>3108000</v>
       </c>
     </row>
     <row r="14">
@@ -1270,38 +1389,38 @@
         </is>
       </c>
       <c r="D14">
-        <v>333</v>
+        <v>188</v>
       </c>
       <c r="E14">
-        <v>0.8048048048048048</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="F14">
-        <v>270</v>
+        <v>88</v>
       </c>
       <c r="G14">
-        <v>345</v>
+        <v>189</v>
       </c>
       <c r="H14">
-        <v>0.7826086956521739</v>
+        <v>0.4656084656084656</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>14250</t>
+          <t>2664</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0.552069638837962</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="K14">
-        <v>7866.992353440959</v>
+        <v>1998</v>
       </c>
       <c r="L14">
-        <v>6156.776624432056</v>
+        <v>930.2857142857142</v>
       </c>
       <c r="M14">
-        <v>0.4320544999601442</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1317,6 +1436,17 @@
         <is>
           <t>Broodstock corrected - Male</t>
         </is>
+      </c>
+      <c r="Q14">
+        <v>3500</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="S14">
+        <v>3256000</v>
       </c>
     </row>
     <row r="15">
@@ -1334,38 +1464,38 @@
         </is>
       </c>
       <c r="D15">
-        <v>333</v>
+        <v>188</v>
       </c>
       <c r="E15">
-        <v>0.02102102102102102</v>
+        <v>0.01595744680851064</v>
       </c>
       <c r="F15">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G15">
-        <v>345</v>
+        <v>189</v>
       </c>
       <c r="H15">
-        <v>0.02028985507246377</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>14250</t>
+          <t>2664</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0.552069638837962</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="K15">
-        <v>7866.992353440959</v>
+        <v>1998</v>
       </c>
       <c r="L15">
-        <v>159.6201347074977</v>
+        <v>31.71428571428571</v>
       </c>
       <c r="M15">
-        <v>0.01120141296192966</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1381,6 +1511,17 @@
         <is>
           <t>Broodstock corrected - Male</t>
         </is>
+      </c>
+      <c r="Q15">
+        <v>4000</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="S15">
+        <v>126857.1428571428</v>
       </c>
     </row>
     <row r="16">
@@ -1398,7 +1539,7 @@
         </is>
       </c>
       <c r="D16">
-        <v>333</v>
+        <v>188</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1406,21 +1547,24 @@
       <c r="F16">
         <v>0</v>
       </c>
+      <c r="G16">
+        <v>189</v>
+      </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>14250</t>
+          <t>2664</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0.552069638837962</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="K16">
-        <v>7866.992353440959</v>
+        <v>1998</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1442,6 +1586,17 @@
         <is>
           <t>Broodstock corrected - Male</t>
         </is>
+      </c>
+      <c r="Q16">
+        <v>4000</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="S16">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1451,7 +1606,7 @@
         </is>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1459,18 +1614,18 @@
         </is>
       </c>
       <c r="D17">
-        <v>609</v>
+        <v>347</v>
       </c>
       <c r="E17">
-        <v>0.07060755336617405</v>
+        <v>0.3112391930835735</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>14250</t>
+          <t>2664</t>
         </is>
       </c>
       <c r="M17">
-        <v>0.0117932895109482</v>
+        <v>0.4034458509142054</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1485,6 +1640,14 @@
       <c r="P17" t="inlineStr">
         <is>
           <t>Broodstock corrected - Total</t>
+        </is>
+      </c>
+      <c r="Q17">
+        <v>3000</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Female</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1658,7 @@
         </is>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1503,18 +1666,18 @@
         </is>
       </c>
       <c r="D18">
-        <v>609</v>
+        <v>347</v>
       </c>
       <c r="E18">
-        <v>0.1198686371100164</v>
+        <v>0.6512968299711815</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>14250</t>
+          <t>2664</t>
         </is>
       </c>
       <c r="M18">
-        <v>0.11868108047813</v>
+        <v>0.5500924251557162</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1529,6 +1692,14 @@
       <c r="P18" t="inlineStr">
         <is>
           <t>Broodstock corrected - Total</t>
+        </is>
+      </c>
+      <c r="Q18">
+        <v>3500</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Female</t>
         </is>
       </c>
     </row>
@@ -1539,7 +1710,7 @@
         </is>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1547,18 +1718,18 @@
         </is>
       </c>
       <c r="D19">
-        <v>609</v>
+        <v>347</v>
       </c>
       <c r="E19">
-        <v>0.7668308702791461</v>
+        <v>0.03746397694524495</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>14250</t>
+          <t>2664</t>
         </is>
       </c>
       <c r="M19">
-        <v>0.8208282697124734</v>
+        <v>0.02646172393007836</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1573,6 +1744,14 @@
       <c r="P19" t="inlineStr">
         <is>
           <t>Broodstock corrected - Total</t>
+        </is>
+      </c>
+      <c r="Q19">
+        <v>4000</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Female</t>
         </is>
       </c>
     </row>
@@ -1583,7 +1762,7 @@
         </is>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1591,18 +1770,18 @@
         </is>
       </c>
       <c r="D20">
-        <v>609</v>
+        <v>347</v>
       </c>
       <c r="E20">
-        <v>0.04105090311986864</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>14250</t>
+          <t>2664</t>
         </is>
       </c>
       <c r="M20">
-        <v>0.04672388938600035</v>
+        <v>0</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1617,6 +1796,14 @@
       <c r="P20" t="inlineStr">
         <is>
           <t>Broodstock corrected - Total</t>
+        </is>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Female</t>
         </is>
       </c>
     </row>
@@ -1635,18 +1822,18 @@
         </is>
       </c>
       <c r="D21">
-        <v>609</v>
+        <v>347</v>
       </c>
       <c r="E21">
-        <v>0.001642036124794745</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>14250</t>
+          <t>2664</t>
         </is>
       </c>
       <c r="M21">
-        <v>0.001973470912448371</v>
+        <v>0</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1661,6 +1848,14 @@
       <c r="P21" t="inlineStr">
         <is>
           <t>Broodstock corrected - Total</t>
+        </is>
+      </c>
+      <c r="Q21">
+        <v>4000</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Female</t>
         </is>
       </c>
     </row>
@@ -1679,21 +1874,21 @@
         </is>
       </c>
       <c r="D22">
-        <v>388</v>
+        <v>189</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>14250</t>
+          <t>2664</t>
         </is>
       </c>
       <c r="K22">
-        <v>8035.046728971972</v>
+        <v>1998</v>
       </c>
       <c r="L22">
-        <v>168.0543755310119</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.0117932895109482</v>
+        <v>0</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1709,6 +1904,17 @@
         <is>
           <t>Broodstock corrected - Males (incl Jacks)</t>
         </is>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="S22">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1726,21 +1932,21 @@
         </is>
       </c>
       <c r="D23">
-        <v>388</v>
+        <v>189</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>14250</t>
+          <t>2664</t>
         </is>
       </c>
       <c r="K23">
-        <v>8035.046728971972</v>
+        <v>1998</v>
       </c>
       <c r="L23">
-        <v>1550.595594301406</v>
+        <v>1036</v>
       </c>
       <c r="M23">
-        <v>0.1088137259158882</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -1756,6 +1962,17 @@
         <is>
           <t>Broodstock corrected - Males (incl Jacks)</t>
         </is>
+      </c>
+      <c r="Q23">
+        <v>3000</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="S23">
+        <v>3108000</v>
       </c>
     </row>
     <row r="24">
@@ -1773,21 +1990,21 @@
         </is>
       </c>
       <c r="D24">
-        <v>388</v>
+        <v>189</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>14250</t>
+          <t>2664</t>
         </is>
       </c>
       <c r="K24">
-        <v>8035.046728971972</v>
+        <v>1998</v>
       </c>
       <c r="L24">
-        <v>6156.776624432056</v>
+        <v>930.2857142857142</v>
       </c>
       <c r="M24">
-        <v>0.4320544999601442</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -1803,6 +2020,17 @@
         <is>
           <t>Broodstock corrected - Males (incl Jacks)</t>
         </is>
+      </c>
+      <c r="Q24">
+        <v>3500</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="S24">
+        <v>3256000</v>
       </c>
     </row>
     <row r="25">
@@ -1820,21 +2048,21 @@
         </is>
       </c>
       <c r="D25">
-        <v>388</v>
+        <v>189</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>14250</t>
+          <t>2664</t>
         </is>
       </c>
       <c r="K25">
-        <v>8035.046728971972</v>
+        <v>1998</v>
       </c>
       <c r="L25">
-        <v>159.6201347074977</v>
+        <v>31.71428571428571</v>
       </c>
       <c r="M25">
-        <v>0.01120141296192966</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -1850,6 +2078,17 @@
         <is>
           <t>Broodstock corrected - Males (incl Jacks)</t>
         </is>
+      </c>
+      <c r="Q25">
+        <v>4000</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="S25">
+        <v>126857.1428571428</v>
       </c>
     </row>
     <row r="26">
@@ -1867,15 +2106,15 @@
         </is>
       </c>
       <c r="D26">
-        <v>388</v>
+        <v>189</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>14250</t>
+          <t>2664</t>
         </is>
       </c>
       <c r="K26">
-        <v>8035.046728971972</v>
+        <v>1998</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -1897,6 +2136,17 @@
         <is>
           <t>Broodstock corrected - Males (incl Jacks)</t>
         </is>
+      </c>
+      <c r="Q26">
+        <v>4000</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="S26">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
